--- a/test_accounts.xlsx
+++ b/test_accounts.xlsx
@@ -3929,7 +3929,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
